--- a/data_excel/707.xlsx
+++ b/data_excel/707.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,9 +105,6 @@
     <t>分</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   <si>
     <t>特點</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -648,12 +648,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -746,18 +746,18 @@
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>

--- a/data_excel/707.xlsx
+++ b/data_excel/707.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>生日會</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>special</t>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,7 +499,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/707.xlsx
+++ b/data_excel/707.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>生日會</t>
   </si>
@@ -119,14 +119,6 @@
   </si>
   <si>
     <t>special</t>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,7 +491,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/707.xlsx
+++ b/data_excel/707.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>生日會</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,12 +503,12 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,12 +528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
